--- a/inst/MFTC_calculator/App_Parameters_Template.xlsx
+++ b/inst/MFTC_calculator/App_Parameters_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\IE for release\IncomeExplorer\inst\MFTC_calculator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SymesL\TAWA-local\IncomeExplorer\inst\MFTC_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBCEDC-5C2D-4461-A5AB-3968DEBDFFD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287DF63-7F57-4B4F-B365-58D760E43215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4215" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -46,30 +46,6 @@
     <t>Accommodation/BaseRateThreshold/Rent</t>
   </si>
   <si>
-    <t>Accommodation/MaxRate/CoupleDeps_Single2_Deps/Area1</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleDeps_Single2_Deps/Area2</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleDeps_Single2_Deps/Area3</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleDeps_Single2_Deps/Area4</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleNoDeps_Single1Dep/Area1</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleNoDeps_Single1Dep/Area2</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleNoDeps_Single1Dep/Area3</t>
-  </si>
-  <si>
-    <t>Accommodation/MaxRate/CoupleNoDeps_Single1Dep/Area4</t>
-  </si>
-  <si>
     <t>Accommodation/MaxRate/SingleNoDeps/Area1</t>
   </si>
   <si>
@@ -262,15 +238,6 @@
     <t>Number of hours for a single parent to be classified as working full time, for IWTC and MFTC eligibility (FamilyAssistance/IWTC/Eligibility must be set to 0)</t>
   </si>
   <si>
-    <t>Single parent phase-in scale for IWTC, eg a phase-in scale of 20% is specifed as -0.2 (FamilyAssistance/IWTC/Eligibility must be set to 2)</t>
-  </si>
-  <si>
-    <t>Couple phase-in scale for IWTC, eg a phase-in scale of 20% is specifed as -0.2 (FamilyAssistance/IWTC/Eligibility must be set to 2)</t>
-  </si>
-  <si>
-    <t>Eligibilty test for In Work Tax Credit. 0: Status quo, based on hours worked and not given to beneficiaries. 1: Income test, option to give to beneficiaries (see below), 2: Phase in amount of IWTC based on phase-in scales (see below).</t>
-  </si>
-  <si>
     <t>Minimum income that ensures that a family is better off in work than on benefit; the Minimum Family Tax Credit brings their income up to this amount. Value is calculated by the TAWA version of the IRD calculator.</t>
   </si>
   <si>
@@ -280,9 +247,6 @@
     <t>Independent Earner Tax Credit, abatement scale</t>
   </si>
   <si>
-    <t>Independent Earner Tax Credit, minimum bound on earned income to determine eligability</t>
-  </si>
-  <si>
     <t>Independent Earner Tax Credit, amount for each year</t>
   </si>
   <si>
@@ -293,13 +257,49 @@
   </si>
   <si>
     <t>Working for Families abatement</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleDeps/Single2/Deps/Area1</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleDeps/Single2/Deps/Area2</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleDeps/Single2/Deps/Area3</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleDeps/Single2/Deps/Area4</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleNoDeps/Single1Dep/Area1</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleNoDeps/Single1Dep/Area2</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleNoDeps/Single1Dep/Area3</t>
+  </si>
+  <si>
+    <t>Accommodation/MaxRate/CoupleNoDeps/Single1Dep/Area4</t>
+  </si>
+  <si>
+    <t>Eligibility test for In Work Tax Credit. 0: Status quo, based on hours worked and not given to beneficiaries. 1: Income test, option to give to beneficiaries (see below), 2: Phase in amount of IWTC based on phase-in scales (see below).</t>
+  </si>
+  <si>
+    <t>Single parent phase-in scale for IWTC, e.g. a phase-in scale of 20% is specified as -0.2 (FamilyAssistance/IWTC/Eligibility must be set to 2)</t>
+  </si>
+  <si>
+    <t>Couple phase-in scale for IWTC, e.g. a phase-in scale of 20% is specified as -0.2 (FamilyAssistance/IWTC/Eligibility must be set to 2)</t>
+  </si>
+  <si>
+    <t>Independent Earner Tax Credit, minimum bound on earned income to determine eligibility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -322,6 +322,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -387,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -434,6 +440,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -734,22 +746,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="53.5703125" customWidth="1"/>
-    <col min="4" max="4" width="182.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.54296875" customWidth="1"/>
+    <col min="3" max="3" width="53.54296875" customWidth="1"/>
+    <col min="4" max="4" width="182.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="2:4" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="2:4" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
@@ -757,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -768,10 +778,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>4</v>
       </c>
@@ -790,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="7" t="s">
         <v>5</v>
       </c>
@@ -801,10 +811,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -812,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -823,524 +833,524 @@
         <v>0</v>
       </c>
       <c r="D8" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="15">
+        <v>0</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="15">
+        <v>0</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="16">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="20">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="20">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="20">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="19">
+        <v>0</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="16">
+        <v>0</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="20">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="13">
+        <v>0</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="17">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="20">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="20">
+        <v>0</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="19">
+        <v>0</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="19">
+        <v>0</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="19">
+        <v>0</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="19">
+        <v>0</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="19">
+        <v>0</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15">
-        <v>0</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="15">
-        <v>0</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="15">
-        <v>0</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="15">
-        <v>0</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="15">
-        <v>0</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="15">
-        <v>0</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="15">
-        <v>0</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="15">
-        <v>0</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="15">
-        <v>0</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C20" s="15">
-        <v>0</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="16">
-        <v>0</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D22" s="12" t="s">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B43" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="19">
+        <v>0</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B44" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="19">
+        <v>0</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B45" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="20">
+        <v>0</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" s="15">
+        <v>0</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52" s="17">
+        <v>0</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B53" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C53" s="17">
+        <v>0</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B54" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="20">
-        <v>0</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="20">
-        <v>0</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="20">
-        <v>0</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C27" s="20">
-        <v>0</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C29" s="19">
-        <v>0</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="16">
-        <v>0</v>
-      </c>
-      <c r="D30" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="20">
-        <v>0</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="13">
-        <v>0</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="17">
-        <v>0</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="20">
-        <v>0</v>
-      </c>
-      <c r="D35" s="20" t="s">
+      <c r="D54" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B55" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="25" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="20">
-        <v>0</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="14">
-        <v>0</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="19">
-        <v>0</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="19">
-        <v>0</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="19">
-        <v>0</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="19">
-        <v>0</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="19">
-        <v>0</v>
-      </c>
-      <c r="D42" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="19">
-        <v>0</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="19">
-        <v>0</v>
-      </c>
-      <c r="D44" s="19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D46" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="20">
-        <v>0</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C49" s="15">
-        <v>0</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="16">
-        <v>0</v>
-      </c>
-      <c r="D50" s="16" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C52" s="17">
-        <v>0</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="17">
-        <v>0</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="C55" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D55" s="23" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/inst/MFTC_calculator/App_Parameters_Template.xlsx
+++ b/inst/MFTC_calculator/App_Parameters_Template.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SymesL\TAWA-local\IncomeExplorer\inst\MFTC_calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287DF63-7F57-4B4F-B365-58D760E43215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CEBD96-CD87-43B7-9792-75068858E466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="96">
   <si>
     <t>Parameter</t>
   </si>
@@ -293,6 +306,21 @@
   </si>
   <si>
     <t>Independent Earner Tax Credit, minimum bound on earned income to determine eligibility</t>
+  </si>
+  <si>
+    <t>MFTC_WEP_scaling</t>
+  </si>
+  <si>
+    <t>WFF_or_Benefit</t>
+  </si>
+  <si>
+    <t>How should the Winter Energy Payment be scaled? Average week = 1, Winter week = 12/5, Summer week = 0</t>
+  </si>
+  <si>
+    <t>What work decision should we assume? Go off-benefit and receive IWTC = "WFF", stay on-benefit = "Benefit", or whichever gives a higher net income = "Max"</t>
+  </si>
+  <si>
+    <t>Max</t>
   </si>
 </sst>
 </file>
@@ -393,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -446,6 +474,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -744,7 +775,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:D55"/>
+  <dimension ref="B1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
@@ -1353,6 +1384,28 @@
         <v>63</v>
       </c>
     </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B56" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="26">
+        <v>1</v>
+      </c>
+      <c r="D56" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B57" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
